--- a/banco/Nutrientes - atualizada.xlsx
+++ b/banco/Nutrientes - atualizada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariadne\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D6E34-F956-42EB-80A2-6F78A5A6E641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB3CC1A-48DC-492F-ABA1-9BBAB98942F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Cerrado Ago" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -284,10 +275,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#.##"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -380,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -414,6 +406,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1835,15 +1828,15 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1851,8 +1844,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -1977,7 +1970,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -2046,7 +2039,7 @@
       </c>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -2115,7 +2108,7 @@
       </c>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2184,7 +2177,7 @@
       </c>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2253,7 +2246,7 @@
       </c>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2322,7 +2315,7 @@
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2390,7 +2383,7 @@
       </c>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2459,7 +2452,7 @@
       </c>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2528,7 +2521,7 @@
       </c>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2597,7 +2590,7 @@
       </c>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -2666,7 +2659,7 @@
       </c>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -2735,7 +2728,7 @@
       </c>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -2804,7 +2797,7 @@
       </c>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -2873,7 +2866,7 @@
       </c>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2942,7 +2935,7 @@
       </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L22">
         <v>17</v>
       </c>
@@ -2978,7 +2971,7 @@
       </c>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3013,7 +3006,7 @@
         <v>1.1400431394577026</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3082,7 +3075,7 @@
       </c>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3151,7 +3144,7 @@
       </c>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3220,7 +3213,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3289,7 +3282,7 @@
       </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3358,7 +3351,7 @@
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3427,7 +3420,7 @@
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3496,7 +3489,7 @@
       </c>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3565,7 +3558,7 @@
       </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3634,7 +3627,7 @@
       </c>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3703,7 +3696,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3772,7 +3765,7 @@
       </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3841,7 +3834,7 @@
       </c>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L36">
         <v>1</v>
       </c>
@@ -3877,7 +3870,7 @@
       </c>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19</v>
       </c>
@@ -3944,7 +3937,7 @@
         <v>4.8082122802734375</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19</v>
       </c>
@@ -4012,7 +4005,7 @@
         <v>2.1079361438751221</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19</v>
       </c>
@@ -4080,7 +4073,7 @@
         <v>1.2929242849349976</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19</v>
       </c>
@@ -4148,7 +4141,7 @@
         <v>2.5453743934631348</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19</v>
       </c>
@@ -4216,7 +4209,7 @@
         <v>1.096922755241394</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19</v>
       </c>
@@ -4301,12 +4294,12 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4373,7 +4366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -4442,7 +4435,7 @@
       </c>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -4511,7 +4504,7 @@
       </c>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -4580,7 +4573,7 @@
       </c>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -4649,7 +4642,7 @@
       </c>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -4718,7 +4711,7 @@
       </c>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -4787,7 +4780,7 @@
       </c>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4856,7 +4849,7 @@
       </c>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4925,7 +4918,7 @@
       </c>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4994,7 +4987,7 @@
       </c>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5063,7 +5056,7 @@
       </c>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -5132,7 +5125,7 @@
       </c>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -5201,7 +5194,7 @@
       </c>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -5270,7 +5263,7 @@
       </c>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -5339,7 +5332,7 @@
       </c>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -5408,7 +5401,7 @@
       </c>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L20">
         <v>17</v>
       </c>
@@ -5444,7 +5437,7 @@
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5479,7 +5472,7 @@
         <v>1.3899451494216919</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5548,7 +5541,7 @@
       </c>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5617,7 +5610,7 @@
       </c>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5686,7 +5679,7 @@
       </c>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5755,7 +5748,7 @@
       </c>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5824,7 +5817,7 @@
       </c>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5893,7 +5886,7 @@
       </c>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5962,7 +5955,7 @@
       </c>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -6031,7 +6024,7 @@
       </c>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6100,7 +6093,7 @@
       </c>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -6169,7 +6162,7 @@
       </c>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6238,7 +6231,7 @@
       </c>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6307,7 +6300,7 @@
       </c>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -6376,7 +6369,7 @@
       </c>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -6445,7 +6438,7 @@
       </c>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L36">
         <v>1</v>
       </c>
@@ -6481,7 +6474,7 @@
       </c>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19</v>
       </c>
@@ -6529,7 +6522,7 @@
         <v>0.90386122465133667</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19</v>
       </c>
@@ -6565,7 +6558,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19</v>
       </c>
@@ -6635,7 +6628,7 @@
       </c>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19</v>
       </c>
@@ -6705,7 +6698,7 @@
       </c>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19</v>
       </c>
@@ -6775,7 +6768,7 @@
       </c>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19</v>
       </c>
@@ -6845,7 +6838,7 @@
       </c>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>19</v>
       </c>
@@ -6915,7 +6908,7 @@
       </c>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19</v>
       </c>
@@ -6985,7 +6978,7 @@
       </c>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19</v>
       </c>
@@ -7055,7 +7048,7 @@
       </c>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
@@ -7125,7 +7118,7 @@
       </c>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19</v>
       </c>
@@ -7195,7 +7188,7 @@
       </c>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19</v>
       </c>
@@ -7265,7 +7258,7 @@
       </c>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19</v>
       </c>
@@ -7335,7 +7328,7 @@
       </c>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19</v>
       </c>
@@ -7405,7 +7398,7 @@
       </c>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19</v>
       </c>
@@ -7475,7 +7468,7 @@
       </c>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K52" s="2"/>
       <c r="L52">
         <v>9</v>
@@ -7512,7 +7505,7 @@
       </c>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L53">
         <v>9</v>
       </c>
@@ -7562,13 +7555,13 @@
       <selection activeCell="O6" sqref="O6:W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>23</v>
       </c>
@@ -7576,7 +7569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>25</v>
       </c>
@@ -7639,7 +7632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -7701,7 +7694,7 @@
         <v>2.778616189956665</v>
       </c>
     </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>12</v>
       </c>
@@ -7763,7 +7756,7 @@
         <v>0.68433946371078491</v>
       </c>
     </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>16</v>
       </c>
@@ -7825,7 +7818,7 @@
         <v>1.9975500106811523</v>
       </c>
     </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -7887,7 +7880,7 @@
         <v>1.9887299537658691</v>
       </c>
     </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>17</v>
       </c>
@@ -7949,7 +7942,7 @@
         <v>1.2096236944198608</v>
       </c>
     </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -8011,7 +8004,7 @@
         <v>1.9475696086883545</v>
       </c>
     </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>10</v>
       </c>
@@ -8073,7 +8066,7 @@
         <v>1.2772442102432251</v>
       </c>
     </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -8135,7 +8128,7 @@
         <v>3.1784594058990479</v>
       </c>
     </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -8197,7 +8190,7 @@
         <v>2.0122501850128174</v>
       </c>
     </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
       <c r="G16">
         <f t="shared" ref="G16" si="6">AVERAGE(G6:G14)</f>
         <v>6.8708888888888886</v>
@@ -8225,13 +8218,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -8239,7 +8232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8301,7 +8294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -8363,7 +8356,7 @@
         <v>1.219423770904541</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -8425,7 +8418,7 @@
         <v>1.3184045553207397</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -8487,7 +8480,7 @@
         <v>1.9660435914993286</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -8549,7 +8542,7 @@
         <v>0.59515875577926636</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -8581,7 +8574,7 @@
         <v>1.036162257194519</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -8651,7 +8644,7 @@
         <v>2.8227164745330811</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -8713,7 +8706,7 @@
         <v>2.4630537033081055</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -8775,7 +8768,7 @@
         <v>3.0248556137084961</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>36</v>
       </c>
@@ -8837,7 +8830,7 @@
         <v>3.461681604385376</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -8899,7 +8892,7 @@
         <v>2.9452176094055176</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -8961,7 +8954,7 @@
         <v>3.6390631198883057</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -9023,7 +9016,7 @@
         <v>2.294492244720459</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -9085,7 +9078,7 @@
         <v>3.3009603023529053</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>41</v>
       </c>
@@ -9147,7 +9140,7 @@
         <v>2.6717953681945801</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>42</v>
       </c>
@@ -9209,7 +9202,7 @@
         <v>0.95874166488647461</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>43</v>
       </c>
@@ -9271,7 +9264,7 @@
         <v>0.95384162664413452</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
@@ -9333,7 +9326,7 @@
         <v>1.5849666595458984</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -9395,7 +9388,7 @@
         <v>1.3664249181747437</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -9457,7 +9450,7 @@
         <v>1.8172285556793213</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -9519,7 +9512,7 @@
         <v>2.4287533760070801</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -9581,7 +9574,7 @@
         <v>1.7819482088088989</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -9643,7 +9636,7 @@
         <v>1.1802234649658203</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -9705,7 +9698,7 @@
         <v>1.3282046318054199</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>51</v>
       </c>
@@ -9767,7 +9760,7 @@
         <v>1.2302038669586182</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>52</v>
       </c>
@@ -9829,7 +9822,7 @@
         <v>1.5585064888000488</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>53</v>
       </c>
@@ -9891,7 +9884,7 @@
         <v>2.0279302597045898</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>54</v>
       </c>
@@ -9953,7 +9946,7 @@
         <v>0.88472455739974976</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>55</v>
       </c>
@@ -10015,7 +10008,7 @@
         <v>1.6917874813079834</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>56</v>
       </c>
@@ -10077,7 +10070,7 @@
         <v>1.0626225471496582</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E45">
         <f>AVERAGE(E6:E43)</f>
         <v>332.90213793103447</v>
@@ -10104,13 +10097,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AC57FA-CE38-4755-9851-A1B2CF5AA4B2}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -10145,7 +10138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -10183,7 +10176,7 @@
         <v>1.9740297794342041</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -10221,7 +10214,7 @@
         <v>0.92542141675949097</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -10259,7 +10252,7 @@
         <v>2.8158564567565918</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -10297,7 +10290,7 @@
         <v>1.2997844219207764</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -10335,7 +10328,7 @@
         <v>0.78626030683517456</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -10373,7 +10366,7 @@
         <v>3.1020188331604004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -10411,7 +10404,7 @@
         <v>2.1906116008758545</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -10449,7 +10442,7 @@
         <v>1.2713642120361328</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -10487,7 +10480,7 @@
         <v>0.96266168355941772</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -10525,7 +10518,7 @@
         <v>2.778616189956665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -10563,7 +10556,7 @@
         <v>0.68433946371078491</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -10601,7 +10594,7 @@
         <v>1.9975500106811523</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -10639,7 +10632,7 @@
         <v>1.9887299537658691</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -10677,7 +10670,7 @@
         <v>1.2096236944198608</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -10715,7 +10708,7 @@
         <v>1.9475696086883545</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -10753,7 +10746,7 @@
         <v>1.2772442102432251</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -10791,7 +10784,7 @@
         <v>3.1784594058990479</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -10829,7 +10822,7 @@
         <v>2.0122501850128174</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -10867,7 +10860,7 @@
         <v>2.0151901245117188</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -10905,7 +10898,7 @@
         <v>1.4301254749298096</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -10943,7 +10936,7 @@
         <v>1.0841826200485229</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -10981,7 +10974,7 @@
         <v>0.65493923425674438</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -11019,7 +11012,7 @@
         <v>1.036162257194519</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -11029,16 +11022,16 @@
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="9">
-        <v>1352</v>
+      <c r="D25" s="15">
+        <v>1.3520000000000001</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>946.3048</v>
+        <v>0.85120000000000007</v>
       </c>
       <c r="F25">
         <f t="shared" si="7"/>
-        <v>9463.0480000000007</v>
+        <v>8.5120000000000005</v>
       </c>
       <c r="G25">
         <v>0.17699999999999999</v>
@@ -11057,7 +11050,7 @@
         <v>5.4517078399658203</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -11095,7 +11088,7 @@
         <v>3.8478047847747803</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -11133,7 +11126,7 @@
         <v>3.0667386054992676</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -11171,7 +11164,7 @@
         <v>1.1008428335189819</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -11209,7 +11202,7 @@
         <v>2.1641514301300049</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -11247,7 +11240,7 @@
         <v>2.9559977054595947</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -11285,7 +11278,7 @@
         <v>3.7076637744903564</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -11323,7 +11316,7 @@
         <v>3.9614856243133545</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -11361,7 +11354,7 @@
         <v>3.4518816471099854</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -11399,7 +11392,7 @@
         <v>1.1567032337188721</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -11437,7 +11430,7 @@
         <v>1.157683253288269</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -11475,7 +11468,7 @@
         <v>0.95188158750534058</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -11513,7 +11506,7 @@
         <v>3.2518837451934814</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -11551,7 +11544,7 @@
         <v>3.53910231590271</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -11589,7 +11582,7 @@
         <v>2.1857113838195801</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -11627,7 +11620,7 @@
         <v>1.7025675773620605</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -11665,7 +11658,7 @@
         <v>1.3291846513748169</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -11703,7 +11696,7 @@
         <v>1.6829674243927002</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -11741,7 +11734,7 @@
         <v>1.2723442316055298</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -11779,7 +11772,7 @@
         <v>2.0935907363891602</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -11817,7 +11810,7 @@
         <v>1.8897491693496704</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -11855,7 +11848,7 @@
         <v>1.3360446691513062</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -11893,7 +11886,7 @@
         <v>1.3487848043441772</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -11931,7 +11924,7 @@
         <v>0.90876126289367676</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -11969,7 +11962,7 @@
         <v>1.219423770904541</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -12007,7 +12000,7 @@
         <v>1.3184045553207397</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -12045,7 +12038,7 @@
         <v>1.9660435914993286</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -12083,7 +12076,7 @@
         <v>0.59515875577926636</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -12121,7 +12114,7 @@
         <v>2.8227164745330811</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -12159,7 +12152,7 @@
         <v>2.4630537033081055</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -12197,7 +12190,7 @@
         <v>3.0248556137084961</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -12235,7 +12228,7 @@
         <v>3.461681604385376</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -12273,7 +12266,7 @@
         <v>2.9452176094055176</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -12311,7 +12304,7 @@
         <v>3.6390631198883057</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -12349,7 +12342,7 @@
         <v>2.294492244720459</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -12387,7 +12380,7 @@
         <v>3.3009603023529053</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -12425,7 +12418,7 @@
         <v>2.6717953681945801</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -12463,7 +12456,7 @@
         <v>0.95874166488647461</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -12501,7 +12494,7 @@
         <v>0.95384162664413452</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -12539,7 +12532,7 @@
         <v>1.5849666595458984</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -12577,7 +12570,7 @@
         <v>1.3664249181747437</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -12615,7 +12608,7 @@
         <v>1.8172285556793213</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -12653,7 +12646,7 @@
         <v>2.4287533760070801</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -12691,7 +12684,7 @@
         <v>1.7819482088088989</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -12729,7 +12722,7 @@
         <v>1.1802234649658203</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -12767,7 +12760,7 @@
         <v>1.3282046318054199</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -12805,7 +12798,7 @@
         <v>1.2302038669586182</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>64</v>
       </c>
@@ -12843,7 +12836,7 @@
         <v>1.5585064888000488</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -12881,7 +12874,7 @@
         <v>2.0279302597045898</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -12919,7 +12912,7 @@
         <v>0.88472455739974976</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -12957,7 +12950,7 @@
         <v>1.6917874813079834</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -13008,12 +13001,12 @@
       <selection activeCell="A20" sqref="A20:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -13036,7 +13029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -13059,7 +13052,7 @@
         <v>1.9740297794342041</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -13082,7 +13075,7 @@
         <v>0.92542141675949097</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -13105,7 +13098,7 @@
         <v>2.8158564567565918</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -13128,7 +13121,7 @@
         <v>1.2997844219207764</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -13151,7 +13144,7 @@
         <v>0.78626030683517456</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -13174,7 +13167,7 @@
         <v>3.1020188331604004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -13197,7 +13190,7 @@
         <v>2.1906116008758545</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -13220,7 +13213,7 @@
         <v>1.2713642120361328</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -13243,7 +13236,7 @@
         <v>0.96266168355941772</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -13266,7 +13259,7 @@
         <v>2.778616189956665</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -13289,7 +13282,7 @@
         <v>0.68433946371078491</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -13312,7 +13305,7 @@
         <v>1.9975500106811523</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -13335,7 +13328,7 @@
         <v>1.9887299537658691</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -13358,7 +13351,7 @@
         <v>1.2096236944198608</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -13381,7 +13374,7 @@
         <v>1.9475696086883545</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -13404,7 +13397,7 @@
         <v>1.2772442102432251</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -13427,7 +13420,7 @@
         <v>3.1784594058990479</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -13450,7 +13443,7 @@
         <v>2.0122501850128174</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -13473,7 +13466,7 @@
         <v>1.6793650984764099</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -13496,7 +13489,7 @@
         <v>1.5448322892189026</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -13519,7 +13512,7 @@
         <v>8.0746064186096191</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -13542,7 +13535,7 @@
         <v>6.8904859224955244</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -13565,7 +13558,7 @@
         <v>1.5174538294474285</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -13588,7 +13581,7 @@
         <v>3.5706528027852378</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -13611,7 +13604,7 @@
         <v>2.6536618073781333</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -13634,7 +13627,7 @@
         <v>2.4620122909545898</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -13657,7 +13650,7 @@
         <v>1.5722108284632366</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -13680,7 +13673,7 @@
         <v>1.393510639667511</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -13703,7 +13696,7 @@
         <v>2.0592321157455444</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -13726,7 +13719,7 @@
         <v>3.1517833868662515</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -13749,7 +13742,7 @@
         <v>8.0951401392618809</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -13772,7 +13765,7 @@
         <v>4.5154003302256269</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -13795,7 +13788,7 @@
         <v>3.7967146237691245</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -13818,7 +13811,7 @@
         <v>2.4209445714950562</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -13841,7 +13834,7 @@
         <v>4.3853524525960283</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -13864,7 +13857,7 @@
         <v>2.3730321725209556</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -13900,12 +13893,12 @@
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -13949,7 +13942,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -13998,7 +13991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -14027,7 +14020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -14056,7 +14049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -14105,7 +14098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -14134,7 +14127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -14183,7 +14176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -14212,7 +14205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -14261,7 +14254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -14290,7 +14283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -14319,7 +14312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14368,7 +14361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -14397,7 +14390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -14446,7 +14439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -14475,7 +14468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -14504,7 +14497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -14553,7 +14546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14582,7 +14575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -14611,7 +14604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14660,7 +14653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -14689,7 +14682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -14718,7 +14711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -14767,7 +14760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -14796,7 +14789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -14825,7 +14818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -14874,7 +14867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -14903,7 +14896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -14932,7 +14925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -14981,7 +14974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -15010,7 +15003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -15039,7 +15032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -15088,7 +15081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -15117,7 +15110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -15146,7 +15139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -15195,7 +15188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -15224,7 +15217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -15253,7 +15246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -15302,7 +15295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -15331,7 +15324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -15360,7 +15353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -15409,7 +15402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -15438,7 +15431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -15467,7 +15460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -15516,7 +15509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -15545,7 +15538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -15594,7 +15587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -15623,7 +15616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -15652,7 +15645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -15701,7 +15694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -15730,7 +15723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -15759,7 +15752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -15808,7 +15801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -15837,7 +15830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -15866,7 +15859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -15915,7 +15908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -15944,7 +15937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -15973,7 +15966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -16022,7 +16015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -16051,7 +16044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -16080,7 +16073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -16129,7 +16122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -16158,7 +16151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -16187,7 +16180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -16236,7 +16229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -16265,7 +16258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -16294,7 +16287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -16343,7 +16336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -16372,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -16401,7 +16394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -16450,7 +16443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -16479,7 +16472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -16508,7 +16501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -16557,7 +16550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -16586,7 +16579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -16615,7 +16608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -16664,7 +16657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -16693,7 +16686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -16742,7 +16735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -16771,7 +16764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -16800,7 +16793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -16849,7 +16842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -16898,7 +16891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -16927,7 +16920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -16956,7 +16949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -17005,7 +16998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -17034,7 +17027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -17063,7 +17056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -17112,7 +17105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -17141,7 +17134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -17170,7 +17163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -17219,7 +17212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -17268,7 +17261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -17297,7 +17290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -17326,7 +17319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -17375,7 +17368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -17404,7 +17397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -17433,7 +17426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -17482,7 +17475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -17511,7 +17504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -17560,7 +17553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -17589,7 +17582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -17618,7 +17611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -17667,7 +17660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -17696,7 +17689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -17725,7 +17718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -17774,7 +17767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -17803,7 +17796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -17832,7 +17825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -17881,7 +17874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -17910,7 +17903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -17939,7 +17932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -17988,7 +17981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -18017,7 +18010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -18046,7 +18039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -18095,7 +18088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -18124,7 +18117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -18153,7 +18146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -18202,7 +18195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -18231,7 +18224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -18260,7 +18253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -18309,7 +18302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -18338,7 +18331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -18367,7 +18360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -18416,7 +18409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -18445,7 +18438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -18474,7 +18467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -18523,7 +18516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -18552,7 +18545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -18581,7 +18574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -18630,7 +18623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -18659,7 +18652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -18688,7 +18681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -18737,7 +18730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -18766,7 +18759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -18795,7 +18788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -18844,7 +18837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -18893,7 +18886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -18922,7 +18915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -18951,7 +18944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -19000,7 +18993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -19029,7 +19022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -19058,7 +19051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -19107,7 +19100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -19136,7 +19129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -19165,7 +19158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -19214,7 +19207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -19243,7 +19236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -19272,7 +19265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -19321,7 +19314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -19350,7 +19343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -19379,7 +19372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -19428,7 +19421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -19457,7 +19450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -19486,7 +19479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>16</v>
       </c>
@@ -19535,7 +19528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -19564,7 +19557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>16</v>
       </c>
@@ -19593,7 +19586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -19642,7 +19635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -19671,7 +19664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -19700,7 +19693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -19749,7 +19742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -19778,7 +19771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -19807,7 +19800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -19856,7 +19849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -19885,7 +19878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -19914,7 +19907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -19963,7 +19956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -19992,7 +19985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>18</v>
       </c>
@@ -20041,7 +20034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -20070,7 +20063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -20099,7 +20092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -20148,7 +20141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -20177,7 +20170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -20226,7 +20219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -20255,7 +20248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -20284,7 +20277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -20333,7 +20326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -20362,7 +20355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -20391,7 +20384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -20440,7 +20433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -20469,7 +20462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -20511,13 +20504,13 @@
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -20543,7 +20536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -20569,7 +20562,7 @@
         <v>1.0688292185465496</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -20595,7 +20588,7 @@
         <v>1.0977753885090351</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -20621,7 +20614,7 @@
         <v>3.8551548719406128</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -20647,7 +20640,7 @@
         <v>3.9546256065368652</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -20673,7 +20666,7 @@
         <v>1.7143276929855347</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -20699,7 +20692,7 @@
         <v>3.599862813949585</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -20725,7 +20718,7 @@
         <v>2.1282176971435547</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -20751,7 +20744,7 @@
         <v>1.6623873313268025</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -20777,7 +20770,7 @@
         <v>3.4701751867930093</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -20803,7 +20796,7 @@
         <v>2.2634587685267129</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -20829,7 +20822,7 @@
         <v>2.1282176971435547</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -20855,7 +20848,7 @@
         <v>1.3602182070414226</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -20881,7 +20874,7 @@
         <v>1.1126029094060261</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -20907,7 +20900,7 @@
         <v>1.3706716100374858</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -20933,7 +20926,7 @@
         <v>1.9639030297597249</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -20959,7 +20952,7 @@
         <v>2.6938456296920776</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -20985,7 +20978,7 @@
         <v>3.2660067081451416</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -21011,7 +21004,7 @@
         <v>1.817436973253886</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -21037,7 +21030,7 @@
         <v>2.0230302015940347</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -21063,7 +21056,7 @@
         <v>2.7338625590006509</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -21089,7 +21082,7 @@
         <v>1.0835293134053547</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -21115,7 +21108,7 @@
         <v>1.8123284975687664</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -21141,7 +21134,7 @@
         <v>2.7893963257471719</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -21167,7 +21160,7 @@
         <v>1.2452305952707927</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -21193,7 +21186,7 @@
         <v>2.8001763820648193</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -21219,7 +21212,7 @@
         <v>1.4997060100237529</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -21245,7 +21238,7 @@
         <v>1.7187377512454987</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -21271,7 +21264,7 @@
         <v>1.6236769556999207</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -21297,7 +21290,7 @@
         <v>6.6122908592224121</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -21323,7 +21316,7 @@
         <v>1.149516503016154</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -21349,7 +21342,7 @@
         <v>1.3435580730438232</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -21375,7 +21368,7 @@
         <v>1.1459231972694397</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -21401,7 +21394,7 @@
         <v>1.096922755241394</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -21427,7 +21420,7 @@
         <v>1.5660198926925659</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -21453,7 +21446,7 @@
         <v>1.1368936498959858</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -21479,7 +21472,7 @@
         <v>2.5733045339584351</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -21505,7 +21498,7 @@
         <v>2.3947978019714355</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -21531,7 +21524,7 @@
         <v>0.91072128216425574</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -21557,7 +21550,7 @@
         <v>1.9926499923070271</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -21583,7 +21576,7 @@
         <v>1.929840366045634</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -21609,7 +21602,7 @@
         <v>1.4082385897636414</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -21635,7 +21628,7 @@
         <v>2.8630168437957764</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -21661,7 +21654,7 @@
         <v>2.1419377724329629</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -21687,7 +21680,7 @@
         <v>1.4088926315307617</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -21713,7 +21706,7 @@
         <v>1.186915139357249</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -21739,7 +21732,7 @@
         <v>1.3731892506281536</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -21765,7 +21758,7 @@
         <v>1.3238055308659871</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -21791,7 +21784,7 @@
         <v>2.2936178048451743</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -21817,7 +21810,7 @@
         <v>2.250391960144043</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -21843,7 +21836,7 @@
         <v>2.7750229040781655</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -21869,7 +21862,7 @@
         <v>1.1792434453964233</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -21895,7 +21888,7 @@
         <v>1.6875408093134563</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -21921,7 +21914,7 @@
         <v>2.7067490418752036</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -21947,7 +21940,7 @@
         <v>1.1577467521031697</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -21973,7 +21966,7 @@
         <v>1.3265815575917561</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -21999,7 +21992,7 @@
         <v>2.3140228589375815</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -22025,7 +22018,7 @@
         <v>1.3969495693842571</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -22051,7 +22044,7 @@
         <v>2.7130487759908042</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -22077,7 +22070,7 @@
         <v>1.4697424968083699</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -22103,7 +22096,7 @@
         <v>1.6849275231361389</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -22129,7 +22122,7 @@
         <v>1.215503712495168</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -22155,7 +22148,7 @@
         <v>4.2976282835006714</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -22181,7 +22174,7 @@
         <v>0.90768587589263916</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -22207,7 +22200,7 @@
         <v>1.3766187230745952</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
